--- a/Documentacion/Caja negra.xlsx
+++ b/Documentacion/Caja negra.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\AndroidStudioProjects\BlackBox\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95435B1A-DF89-4BA7-B263-F66685161CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5BC321-D0BB-4F0C-A3B0-DA68CC225428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign in " sheetId="1" r:id="rId1"/>
     <sheet name="Change password" sheetId="2" r:id="rId2"/>
+    <sheet name="Log in" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Descripción</t>
   </si>
@@ -65,6 +66,48 @@
   </si>
   <si>
     <t>CORRECTO</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de crear cuenta</t>
+  </si>
+  <si>
+    <t>Alguno de los campos estan vacios (email, contraseña y/o confirmación de contraseña</t>
+  </si>
+  <si>
+    <t>El email esta mal formateado</t>
+  </si>
+  <si>
+    <t>Mostrará al usuario un aviso y marcará el campo del email</t>
+  </si>
+  <si>
+    <t>La contraseña esta mal formateada</t>
+  </si>
+  <si>
+    <t>Mostrará el usuario un aviso y marcará el campo de la contraseña</t>
+  </si>
+  <si>
+    <t>El campo de las contraseñas no son iguales</t>
+  </si>
+  <si>
+    <t>Mostrará un al usuario un mensaje de aviso</t>
+  </si>
+  <si>
+    <t>La información introducida por el usuario es correcta</t>
+  </si>
+  <si>
+    <t>Mostrará el MaterialAlertDialog con las dos opciones</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón "Si" del MaterialAlertDialog</t>
+  </si>
+  <si>
+    <t>Mostrará la pantalla una SnackBar que cuando sea pulsado el botón, cargará la pantalla de inicio de sesión</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón "No" del MaterialAlertDialog</t>
+  </si>
+  <si>
+    <t>Mostrará la pantalla una SnackBar para informar al usuario que la cuenta no ha sido creada</t>
   </si>
 </sst>
 </file>
@@ -511,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6AA7F2-84CB-43F9-A39E-323079CBDC1B}">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -637,4 +680,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F197EF7-10B4-4470-B3B1-4B51395FA6F8}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Caja negra.xlsx
+++ b/Documentacion/Caja negra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\AndroidStudioProjects\BlackBox\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5BC321-D0BB-4F0C-A3B0-DA68CC225428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72234D-2A53-4FD9-93AC-D47DDFFB21AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign in " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Descripción</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Mostrará la pantalla una SnackBar para informar al usuario que la cuenta no ha sido creada</t>
+  </si>
+  <si>
+    <t>Alguno de los campos no coinciden con los de la base de datos</t>
+  </si>
+  <si>
+    <t>El usuario visualizará un mensaje informando de que debe de verificar la información</t>
+  </si>
+  <si>
+    <t>Mostrará al usuario un mensaje  para informar al usuario</t>
+  </si>
+  <si>
+    <t>El campo de email contiene un correo no válido (que no este registrado en Black Box)</t>
+  </si>
+  <si>
+    <t>El campo de email contiene un correo válido (que este registrado en Black Box)</t>
+  </si>
+  <si>
+    <t>FALLO</t>
   </si>
 </sst>
 </file>
@@ -172,13 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,11 +204,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D615470-9FAD-4499-853C-00F74AA0305D}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,34 +570,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -555,7 +710,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,44 +721,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -642,42 +813,47 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -686,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F197EF7-10B4-4470-B3B1-4B51395FA6F8}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,118 +889,123 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentacion/Caja negra.xlsx
+++ b/Documentacion/Caja negra.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\AndroidStudioProjects\BlackBox\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documents\GitHub\BlackBox\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72234D-2A53-4FD9-93AC-D47DDFFB21AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E10F0-62A6-450E-A8C5-C5E94F4B51FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="3" xr2:uid="{CCEA6153-0F90-428E-9EC9-8B8D442A81F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign in " sheetId="1" r:id="rId1"/>
     <sheet name="Change password" sheetId="2" r:id="rId2"/>
     <sheet name="Log in" sheetId="3" r:id="rId3"/>
+    <sheet name="EditProfile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>Descripción</t>
   </si>
@@ -126,6 +127,63 @@
   </si>
   <si>
     <t>FALLO</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de cambiar la imagen de perfil</t>
+  </si>
+  <si>
+    <t>Cargará la galeria donde saldrán todas las imágenes que tiene almacenadas</t>
+  </si>
+  <si>
+    <t>El usuario no selecciona ninguna foto (vuelve a la actividad de editar perfil)</t>
+  </si>
+  <si>
+    <t>Se mantiene la foto que tenia y vuelve a la pantalla de editar perfil</t>
+  </si>
+  <si>
+    <t>El usuario selecciona una foto</t>
+  </si>
+  <si>
+    <t>Se cambia la foto de perfil y vuelve a la pantalla de editar perfil</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de confirmar cambios</t>
+  </si>
+  <si>
+    <t>El campo de nombre de usuario esta vacio</t>
+  </si>
+  <si>
+    <t>Mostrará un mensaje de aviso al usuario</t>
+  </si>
+  <si>
+    <t>El campo de la biografia esta vacio</t>
+  </si>
+  <si>
+    <t>El campo del nombre de usuario y el de la biografia esta vacio</t>
+  </si>
+  <si>
+    <t>El campo del nombre de usuario esta rellenado pero el campo de la biografia esta vacio</t>
+  </si>
+  <si>
+    <t>El campo de la biografia esta relleno pero el campo del nombre de usuario esta vacio</t>
+  </si>
+  <si>
+    <t>El campo del nombre de usuario y el campo de la biografia esta rellenado</t>
+  </si>
+  <si>
+    <t>Se mostrará un MaterialAlertDialog</t>
+  </si>
+  <si>
+    <t>Se cerrará el MaterialAlertDialog</t>
+  </si>
+  <si>
+    <t>Se cerrará el MaterialAlertDialog, se actualizará el perfil con la nueva información y se mostrará un mensaje de aviso</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón "De acuerdo" del mensaje de aviso</t>
+  </si>
+  <si>
+    <t>Se mostrará el fragmento "Home"</t>
   </si>
 </sst>
 </file>
@@ -190,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,11 +268,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -557,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D615470-9FAD-4499-853C-00F74AA0305D}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +878,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -710,7 +891,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +1031,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -863,7 +1044,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,10 +1183,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="CORRECTO">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="CORRECTO">
       <formula>NOT(ISERROR(SEARCH("CORRECTO",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BA6F06-CB27-49CD-974C-6FCF133791BA}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="CORRECTO">
+      <formula>NOT(ISERROR(SEARCH("CORRECTO",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>